--- a/data/outputs/OR_altmetric/10.xlsx
+++ b/data/outputs/OR_altmetric/10.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE95"/>
+  <dimension ref="A1:CF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1537,6 +1548,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1786,6 +1800,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2033,6 +2050,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2272,6 +2292,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2525,6 +2548,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2774,6 +2800,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3031,6 +3060,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3284,6 +3316,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3531,6 +3566,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,6 +3812,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4031,6 +4072,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4280,6 +4324,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4525,6 +4572,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4782,6 +4832,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5035,6 +5088,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5278,6 +5334,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5523,6 +5582,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5772,6 +5834,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6025,6 +6090,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6282,6 +6350,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6525,6 +6596,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6768,6 +6842,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7025,6 +7102,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7274,6 +7354,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7521,6 +7604,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7764,6 +7850,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8013,6 +8102,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8262,6 +8354,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8521,6 +8616,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8774,6 +8872,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9031,6 +9132,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9280,6 +9384,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9537,6 +9644,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9782,6 +9892,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10027,6 +10140,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10280,6 +10396,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10537,6 +10656,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10786,6 +10908,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11039,6 +11164,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11288,6 +11416,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11535,6 +11666,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11778,6 +11912,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12027,6 +12164,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12272,6 +12412,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12529,6 +12672,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12778,6 +12924,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13025,6 +13174,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13268,6 +13420,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13525,6 +13680,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13780,6 +13938,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14023,6 +14184,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14282,6 +14446,9 @@
         <v>0</v>
       </c>
       <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14523,6 +14690,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14742,6 +14912,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14995,6 +15168,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15248,6 +15424,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15497,6 +15676,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15750,6 +15932,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16007,6 +16192,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16256,6 +16444,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16501,6 +16692,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16750,6 +16944,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17003,6 +17200,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17260,6 +17460,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17509,6 +17712,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17764,6 +17970,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18009,6 +18218,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18258,6 +18470,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18507,6 +18722,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18756,6 +18974,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19005,6 +19226,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19262,6 +19486,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19515,6 +19742,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19774,6 +20004,9 @@
         <v>0</v>
       </c>
       <c r="CE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20017,6 +20250,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20270,6 +20506,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20519,6 +20758,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20772,6 +21014,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21019,6 +21264,9 @@
         <v>0</v>
       </c>
       <c r="CE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21262,6 +21510,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21503,6 +21754,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21750,6 +22004,9 @@
         <v>0</v>
       </c>
       <c r="CE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21993,6 +22250,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22238,6 +22498,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22481,6 +22744,9 @@
         <v>0</v>
       </c>
       <c r="CE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22720,6 +22986,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22965,6 +23234,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23204,6 +23476,9 @@
         <v>0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23443,6 +23718,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23696,6 +23974,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23949,6 +24230,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24202,6 +24486,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
